--- a/source_data/child_related_SDG_indicators.xlsx
+++ b/source_data/child_related_SDG_indicators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palma\code\SDG-MENARO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palma\code\SDG-MENARO\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772CE1B4-4868-4827-85AA-986EC9F7B136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BF8A43-528A-47B9-992F-63C43C747914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF29679F-DA0D-4D4C-A658-2B09550494ED}"/>
+    <workbookView xWindow="28680" yWindow="-1650" windowWidth="29040" windowHeight="16440" xr2:uid="{FF29679F-DA0D-4D4C-A658-2B09550494ED}"/>
   </bookViews>
   <sheets>
     <sheet name="child_related_SDG_indicators" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="377">
   <si>
     <t>CHILD-RELATED INDICATOR</t>
   </si>
@@ -1229,6 +1229,9 @@
   </si>
   <si>
     <t>Salmeron-Gomez, et al., 2023</t>
+  </si>
+  <si>
+    <t>PV_CHLD_DPRV_REG_MOD</t>
   </si>
 </sst>
 </file>
@@ -1712,16 +1715,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2099,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0874F0DE-CFDD-4D62-B6DA-403EF2582B9F}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2277,7 @@
         <v>234</v>
       </c>
       <c r="L4" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>235</v>
@@ -2567,7 +2566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
@@ -2607,7 +2606,6 @@
       <c r="M12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N12"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3390,7 +3388,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -3431,7 +3429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -3469,7 +3467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>346</v>
       </c>
@@ -3508,7 +3506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>268</v>
       </c>
@@ -3549,7 +3547,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>260</v>
       </c>
@@ -3590,7 +3588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>177</v>
       </c>
@@ -3631,49 +3629,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" t="s">
         <v>122</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
         <v>22</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" t="s">
         <v>119</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
@@ -3714,7 +3711,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -3755,7 +3752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
@@ -3796,7 +3793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>374</v>
       </c>
@@ -3878,7 +3875,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>276</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>284</v>
       </c>
@@ -3960,7 +3957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>292</v>
       </c>
@@ -4001,7 +3998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
